--- a/src/OLAP/DataSources/FGR.Profit.xlsx
+++ b/src/OLAP/DataSources/FGR.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A43590E-76F3-43D4-B7C6-615235DE5F4C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDCDCD0-A3F6-403C-9647-5E5A596E5CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FGR OLAP" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\FGR OLAP.odc" keepAlive="1" name="FGR Travel Документы" type="5" refreshedVersion="6" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\FGR OLAP.odc" keepAlive="1" name="FGR Travel Документы" type="5" refreshedVersion="7" background="1">
     <dbPr connection="Provider=MSOLAP.8;Persist Security Info=True;User ID=SRV01\fgr;Initial Catalog=FGR Travel;Data Source=analysis.travel.smartikum.com;Location=analysis.travel.smartikum.com;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Документы" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -683,7 +683,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44348.402624189817" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44739.890040740742" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:M15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1787,9 +1787,11 @@
       <c r="K8" s="3">
         <v>1854</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>54491</v>
+      </c>
       <c r="M8" s="3">
-        <v>1417555.4999999998</v>
+        <v>1472046.4999999998</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1824,9 +1826,11 @@
       <c r="K9" s="3">
         <v>9490.4399999999987</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>56398.409999999996</v>
+      </c>
       <c r="M9" s="3">
-        <v>1509730.4699999997</v>
+        <v>1566128.8799999997</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1861,9 +1865,11 @@
       <c r="K10" s="3">
         <v>20740.169999999998</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>48432</v>
+      </c>
       <c r="M10" s="3">
-        <v>1396982.85</v>
+        <v>1445414.85</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1900,9 +1906,11 @@
       <c r="K11" s="3">
         <v>16769</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>58511.199999999997</v>
+      </c>
       <c r="M11" s="3">
-        <v>1362552.679999999</v>
+        <v>1421063.8799999987</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1919,7 +1927,7 @@
         <v>233381.3299999997</v>
       </c>
       <c r="E12" s="3">
-        <v>159778.47999999992</v>
+        <v>159778.47999999986</v>
       </c>
       <c r="F12" s="3">
         <v>213315.79999999981</v>
@@ -1939,9 +1947,11 @@
       <c r="K12" s="3">
         <v>154396.34</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>15041.78</v>
+      </c>
       <c r="M12" s="3">
-        <v>1855592.419999999</v>
+        <v>1870634.199999999</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2057,10 +2067,10 @@
         <v>511035.2</v>
       </c>
       <c r="L15" s="3">
-        <v>189600.81</v>
+        <v>422475.2</v>
       </c>
       <c r="M15" s="3">
-        <v>17737924.609999996</v>
+        <v>17970798.999999996</v>
       </c>
     </row>
   </sheetData>
